--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value187.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value187.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.209759291456526</v>
+        <v>8.307456016540527</v>
       </c>
       <c r="B1">
-        <v>1.793890441177004</v>
+        <v>6.171613216400146</v>
       </c>
       <c r="C1">
-        <v>3.076278807921397</v>
+        <v>5.016767978668213</v>
       </c>
       <c r="D1">
-        <v>2.355161345908293</v>
+        <v>15</v>
       </c>
       <c r="E1">
-        <v>0.5175940660027378</v>
+        <v>3.205115556716919</v>
       </c>
     </row>
   </sheetData>
